--- a/example_data/EPA/label_corrected/000432-01312-20161024_2018-12-07_221552.xlsx
+++ b/example_data/EPA/label_corrected/000432-01312-20161024_2018-12-07_221552.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -646,7 +646,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions</t>
+          <t>application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -967,7 +967,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
